--- a/webtools/tests/data/ExcelOneSheet.xlsx
+++ b/webtools/tests/data/ExcelOneSheet.xlsx
@@ -86,7 +86,7 @@
     <t>Subject completes response to perturbation having steered the vehicle back to the center of the lane. Normally this would be tagged with temporal scope, but avoiding definitions here.</t>
   </si>
   <si>
-    <t>Agent-action, Participant-response, Correction, ((Human-agent, Experiment-participant), (Modify, (Car, Direction)))</t>
+    <t>Agent-action, Participant-response, Correction, ((Human-agent, Experiment-participant), (Modify, (Car, Angle)))</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
